--- a/assets/format_invoice_mvs.xlsx
+++ b/assets/format_invoice_mvs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>INVOICE</t>
   </si>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>No. Invoice :</t>
-  </si>
-  <si>
-    <t>04000306/MVS/XII/2021</t>
   </si>
   <si>
     <t>Address : Graha Simatupang Tower 2C Lt.6, Jl. TB Simatupang, Jati Padang, Ps.Minggu, Jakarta Selatan 12540</t>
@@ -501,11 +498,11 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -560,11 +557,11 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -578,7 +575,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,28 +862,26 @@
       <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -876,11 +900,11 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
@@ -911,19 +935,19 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>13</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1088,7 +1112,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="D36" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="38">
         <f>SUM(E20:E34)</f>
@@ -1097,13 +1121,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="D37" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="38"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="D38" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="47">
         <f>SUM(E36:E37)</f>
@@ -1114,13 +1138,13 @@
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1">
       <c r="D41" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
@@ -1137,7 +1161,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
@@ -1153,26 +1177,26 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="52" t="s">
         <v>21</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="52">
+        <v>22</v>
+      </c>
+      <c r="B48" s="53">
         <v>7.010168672E9</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="53" t="s">
         <v>24</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -1184,7 +1208,7 @@
     <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1"/>
